--- a/olta_in/olta_in.xlsx
+++ b/olta_in/olta_in.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="287">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -842,6 +842,45 @@
   </si>
   <si>
     <t xml:space="preserve">255/55 R19 Ikon Autograph Ice 9 SUV 111T шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О2009095 от 20.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265/55 R19 Ikon Autograph Ice 9 SUV 113T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О2309123 от 23.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О2309119 от 23.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185/65 R14 IKON NORDMAN 8 90T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195/60 R15 Ikon NORDMAN 7 92T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195/60 R15 Ikon NORDMAN 8 92T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215/60 R16 IKON AUTOGRAPH ICE 9 99T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225/60 R18 IKON AUTOGRAPH SNOW 3 SUV 104R XL автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225/65 R17 IKON AUTOGRAPH SNOW 3 SUV 106R XL автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">245/70 R16 IKON NORDMAN 7 SUV 111T XL шип автошина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">О2609060 от 26.09.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">235/60 R18 IKON NORDMAN 7 SUV 107T XL шип автошина</t>
   </si>
 </sst>
 </file>
@@ -1196,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:IA1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A409" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1252,7 +1291,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="n">
-        <f aca="false">SUM(I3:I525)</f>
+        <f aca="false">SUM(I3:I524)</f>
         <v>32</v>
       </c>
       <c r="J2" s="1" t="n">
@@ -18397,6 +18436,1290 @@
         <v>66472</v>
       </c>
     </row>
+    <row r="410" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B410" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A411" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B411" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C411" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D411" s="10" t="n">
+        <v>4521</v>
+      </c>
+      <c r="E411" s="10" t="n">
+        <v>54252</v>
+      </c>
+      <c r="F411" s="11" t="n">
+        <f aca="false">C411-I411-K411</f>
+        <v>12</v>
+      </c>
+      <c r="GP411" s="3"/>
+      <c r="GQ411" s="3"/>
+      <c r="GR411" s="3"/>
+      <c r="GS411" s="3"/>
+      <c r="GT411" s="3"/>
+      <c r="GU411" s="3"/>
+      <c r="GV411" s="3"/>
+      <c r="GW411" s="3"/>
+      <c r="GX411" s="3"/>
+      <c r="GY411" s="3"/>
+      <c r="GZ411" s="3"/>
+      <c r="HA411" s="0"/>
+      <c r="HB411" s="0"/>
+      <c r="HC411" s="0"/>
+      <c r="HD411" s="0"/>
+      <c r="HE411" s="0"/>
+      <c r="HF411" s="0"/>
+      <c r="HG411" s="0"/>
+      <c r="HH411" s="0"/>
+      <c r="HI411" s="0"/>
+      <c r="HJ411" s="0"/>
+      <c r="HK411" s="0"/>
+      <c r="HL411" s="0"/>
+      <c r="HM411" s="0"/>
+      <c r="HN411" s="0"/>
+      <c r="HO411" s="0"/>
+      <c r="HP411" s="0"/>
+      <c r="HQ411" s="0"/>
+      <c r="HR411" s="0"/>
+      <c r="HS411" s="0"/>
+      <c r="HT411" s="0"/>
+      <c r="HU411" s="0"/>
+      <c r="HV411" s="0"/>
+      <c r="HW411" s="0"/>
+      <c r="HX411" s="0"/>
+      <c r="HY411" s="0"/>
+      <c r="HZ411" s="0"/>
+      <c r="IA411" s="0"/>
+    </row>
+    <row r="412" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A412" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B412" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="C412" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D412" s="10" t="n">
+        <v>17840</v>
+      </c>
+      <c r="E412" s="10" t="n">
+        <v>214080</v>
+      </c>
+      <c r="F412" s="11" t="n">
+        <f aca="false">C412-I412-K412</f>
+        <v>12</v>
+      </c>
+      <c r="GP412" s="3"/>
+      <c r="GQ412" s="3"/>
+      <c r="GR412" s="3"/>
+      <c r="GS412" s="3"/>
+      <c r="GT412" s="3"/>
+      <c r="GU412" s="3"/>
+      <c r="GV412" s="3"/>
+      <c r="GW412" s="3"/>
+      <c r="GX412" s="3"/>
+      <c r="GY412" s="3"/>
+      <c r="GZ412" s="3"/>
+      <c r="HA412" s="0"/>
+      <c r="HB412" s="0"/>
+      <c r="HC412" s="0"/>
+      <c r="HD412" s="0"/>
+      <c r="HE412" s="0"/>
+      <c r="HF412" s="0"/>
+      <c r="HG412" s="0"/>
+      <c r="HH412" s="0"/>
+      <c r="HI412" s="0"/>
+      <c r="HJ412" s="0"/>
+      <c r="HK412" s="0"/>
+      <c r="HL412" s="0"/>
+      <c r="HM412" s="0"/>
+      <c r="HN412" s="0"/>
+      <c r="HO412" s="0"/>
+      <c r="HP412" s="0"/>
+      <c r="HQ412" s="0"/>
+      <c r="HR412" s="0"/>
+      <c r="HS412" s="0"/>
+      <c r="HT412" s="0"/>
+      <c r="HU412" s="0"/>
+      <c r="HV412" s="0"/>
+      <c r="HW412" s="0"/>
+      <c r="HX412" s="0"/>
+      <c r="HY412" s="0"/>
+      <c r="HZ412" s="0"/>
+      <c r="IA412" s="0"/>
+    </row>
+    <row r="413" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E413" s="2" t="n">
+        <f aca="false">SUM(E411:E412)</f>
+        <v>268332</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B415" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A416" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B416" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C416" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D416" s="10" t="n">
+        <v>18594</v>
+      </c>
+      <c r="E416" s="10" t="n">
+        <v>74376</v>
+      </c>
+      <c r="F416" s="11" t="n">
+        <f aca="false">C416-I416-K416</f>
+        <v>4</v>
+      </c>
+      <c r="GP416" s="3"/>
+      <c r="GQ416" s="3"/>
+      <c r="GR416" s="3"/>
+      <c r="GS416" s="3"/>
+      <c r="GT416" s="3"/>
+      <c r="GU416" s="3"/>
+      <c r="GV416" s="3"/>
+      <c r="GW416" s="3"/>
+      <c r="GX416" s="3"/>
+      <c r="GY416" s="3"/>
+      <c r="GZ416" s="3"/>
+      <c r="HA416" s="0"/>
+      <c r="HB416" s="0"/>
+      <c r="HC416" s="0"/>
+      <c r="HD416" s="0"/>
+      <c r="HE416" s="0"/>
+      <c r="HF416" s="0"/>
+      <c r="HG416" s="0"/>
+      <c r="HH416" s="0"/>
+      <c r="HI416" s="0"/>
+      <c r="HJ416" s="0"/>
+      <c r="HK416" s="0"/>
+      <c r="HL416" s="0"/>
+      <c r="HM416" s="0"/>
+      <c r="HN416" s="0"/>
+      <c r="HO416" s="0"/>
+      <c r="HP416" s="0"/>
+      <c r="HQ416" s="0"/>
+      <c r="HR416" s="0"/>
+      <c r="HS416" s="0"/>
+      <c r="HT416" s="0"/>
+      <c r="HU416" s="0"/>
+      <c r="HV416" s="0"/>
+      <c r="HW416" s="0"/>
+      <c r="HX416" s="0"/>
+      <c r="HY416" s="0"/>
+      <c r="HZ416" s="0"/>
+      <c r="IA416" s="0"/>
+    </row>
+    <row r="417" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E417" s="2" t="n">
+        <f aca="false">SUM(E416:E416)</f>
+        <v>74376</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B419" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A420" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B420" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C420" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D420" s="10" t="n">
+        <v>5818</v>
+      </c>
+      <c r="E420" s="10" t="n">
+        <v>23272</v>
+      </c>
+      <c r="F420" s="11" t="n">
+        <f aca="false">C420-I420-K420</f>
+        <v>4</v>
+      </c>
+      <c r="GP420" s="3"/>
+      <c r="GQ420" s="3"/>
+      <c r="GR420" s="3"/>
+      <c r="GS420" s="3"/>
+      <c r="GT420" s="3"/>
+      <c r="GU420" s="3"/>
+      <c r="GV420" s="3"/>
+      <c r="GW420" s="3"/>
+      <c r="GX420" s="3"/>
+      <c r="GY420" s="3"/>
+      <c r="GZ420" s="3"/>
+      <c r="HA420" s="0"/>
+      <c r="HB420" s="0"/>
+      <c r="HC420" s="0"/>
+      <c r="HD420" s="0"/>
+      <c r="HE420" s="0"/>
+      <c r="HF420" s="0"/>
+      <c r="HG420" s="0"/>
+      <c r="HH420" s="0"/>
+      <c r="HI420" s="0"/>
+      <c r="HJ420" s="0"/>
+      <c r="HK420" s="0"/>
+      <c r="HL420" s="0"/>
+      <c r="HM420" s="0"/>
+      <c r="HN420" s="0"/>
+      <c r="HO420" s="0"/>
+      <c r="HP420" s="0"/>
+      <c r="HQ420" s="0"/>
+      <c r="HR420" s="0"/>
+      <c r="HS420" s="0"/>
+      <c r="HT420" s="0"/>
+      <c r="HU420" s="0"/>
+      <c r="HV420" s="0"/>
+      <c r="HW420" s="0"/>
+      <c r="HX420" s="0"/>
+      <c r="HY420" s="0"/>
+      <c r="HZ420" s="0"/>
+      <c r="IA420" s="0"/>
+    </row>
+    <row r="421" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A421" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="B421" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C421" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D421" s="10" t="n">
+        <v>4099</v>
+      </c>
+      <c r="E421" s="10" t="n">
+        <v>16396</v>
+      </c>
+      <c r="F421" s="11" t="n">
+        <f aca="false">C421-I421-K421</f>
+        <v>4</v>
+      </c>
+      <c r="GP421" s="3"/>
+      <c r="GQ421" s="3"/>
+      <c r="GR421" s="3"/>
+      <c r="GS421" s="3"/>
+      <c r="GT421" s="3"/>
+      <c r="GU421" s="3"/>
+      <c r="GV421" s="3"/>
+      <c r="GW421" s="3"/>
+      <c r="GX421" s="3"/>
+      <c r="GY421" s="3"/>
+      <c r="GZ421" s="3"/>
+      <c r="HA421" s="0"/>
+      <c r="HB421" s="0"/>
+      <c r="HC421" s="0"/>
+      <c r="HD421" s="0"/>
+      <c r="HE421" s="0"/>
+      <c r="HF421" s="0"/>
+      <c r="HG421" s="0"/>
+      <c r="HH421" s="0"/>
+      <c r="HI421" s="0"/>
+      <c r="HJ421" s="0"/>
+      <c r="HK421" s="0"/>
+      <c r="HL421" s="0"/>
+      <c r="HM421" s="0"/>
+      <c r="HN421" s="0"/>
+      <c r="HO421" s="0"/>
+      <c r="HP421" s="0"/>
+      <c r="HQ421" s="0"/>
+      <c r="HR421" s="0"/>
+      <c r="HS421" s="0"/>
+      <c r="HT421" s="0"/>
+      <c r="HU421" s="0"/>
+      <c r="HV421" s="0"/>
+      <c r="HW421" s="0"/>
+      <c r="HX421" s="0"/>
+      <c r="HY421" s="0"/>
+      <c r="HZ421" s="0"/>
+      <c r="IA421" s="0"/>
+    </row>
+    <row r="422" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A422" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B422" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="C422" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D422" s="10" t="n">
+        <v>5328</v>
+      </c>
+      <c r="E422" s="10" t="n">
+        <v>21312</v>
+      </c>
+      <c r="F422" s="11" t="n">
+        <f aca="false">C422-I422-K422</f>
+        <v>4</v>
+      </c>
+      <c r="GP422" s="3"/>
+      <c r="GQ422" s="3"/>
+      <c r="GR422" s="3"/>
+      <c r="GS422" s="3"/>
+      <c r="GT422" s="3"/>
+      <c r="GU422" s="3"/>
+      <c r="GV422" s="3"/>
+      <c r="GW422" s="3"/>
+      <c r="GX422" s="3"/>
+      <c r="GY422" s="3"/>
+      <c r="GZ422" s="3"/>
+      <c r="HA422" s="0"/>
+      <c r="HB422" s="0"/>
+      <c r="HC422" s="0"/>
+      <c r="HD422" s="0"/>
+      <c r="HE422" s="0"/>
+      <c r="HF422" s="0"/>
+      <c r="HG422" s="0"/>
+      <c r="HH422" s="0"/>
+      <c r="HI422" s="0"/>
+      <c r="HJ422" s="0"/>
+      <c r="HK422" s="0"/>
+      <c r="HL422" s="0"/>
+      <c r="HM422" s="0"/>
+      <c r="HN422" s="0"/>
+      <c r="HO422" s="0"/>
+      <c r="HP422" s="0"/>
+      <c r="HQ422" s="0"/>
+      <c r="HR422" s="0"/>
+      <c r="HS422" s="0"/>
+      <c r="HT422" s="0"/>
+      <c r="HU422" s="0"/>
+      <c r="HV422" s="0"/>
+      <c r="HW422" s="0"/>
+      <c r="HX422" s="0"/>
+      <c r="HY422" s="0"/>
+      <c r="HZ422" s="0"/>
+      <c r="IA422" s="0"/>
+    </row>
+    <row r="423" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A423" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="B423" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="C423" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D423" s="10" t="n">
+        <v>5690</v>
+      </c>
+      <c r="E423" s="10" t="n">
+        <v>68280</v>
+      </c>
+      <c r="F423" s="11" t="n">
+        <f aca="false">C423-I423-K423</f>
+        <v>12</v>
+      </c>
+      <c r="GP423" s="3"/>
+      <c r="GQ423" s="3"/>
+      <c r="GR423" s="3"/>
+      <c r="GS423" s="3"/>
+      <c r="GT423" s="3"/>
+      <c r="GU423" s="3"/>
+      <c r="GV423" s="3"/>
+      <c r="GW423" s="3"/>
+      <c r="GX423" s="3"/>
+      <c r="GY423" s="3"/>
+      <c r="GZ423" s="3"/>
+      <c r="HA423" s="0"/>
+      <c r="HB423" s="0"/>
+      <c r="HC423" s="0"/>
+      <c r="HD423" s="0"/>
+      <c r="HE423" s="0"/>
+      <c r="HF423" s="0"/>
+      <c r="HG423" s="0"/>
+      <c r="HH423" s="0"/>
+      <c r="HI423" s="0"/>
+      <c r="HJ423" s="0"/>
+      <c r="HK423" s="0"/>
+      <c r="HL423" s="0"/>
+      <c r="HM423" s="0"/>
+      <c r="HN423" s="0"/>
+      <c r="HO423" s="0"/>
+      <c r="HP423" s="0"/>
+      <c r="HQ423" s="0"/>
+      <c r="HR423" s="0"/>
+      <c r="HS423" s="0"/>
+      <c r="HT423" s="0"/>
+      <c r="HU423" s="0"/>
+      <c r="HV423" s="0"/>
+      <c r="HW423" s="0"/>
+      <c r="HX423" s="0"/>
+      <c r="HY423" s="0"/>
+      <c r="HZ423" s="0"/>
+      <c r="IA423" s="0"/>
+    </row>
+    <row r="424" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A424" s="10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B424" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C424" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D424" s="10" t="n">
+        <v>4521</v>
+      </c>
+      <c r="E424" s="10" t="n">
+        <v>18084</v>
+      </c>
+      <c r="F424" s="11" t="n">
+        <f aca="false">C424-I424-K424</f>
+        <v>4</v>
+      </c>
+      <c r="GP424" s="3"/>
+      <c r="GQ424" s="3"/>
+      <c r="GR424" s="3"/>
+      <c r="GS424" s="3"/>
+      <c r="GT424" s="3"/>
+      <c r="GU424" s="3"/>
+      <c r="GV424" s="3"/>
+      <c r="GW424" s="3"/>
+      <c r="GX424" s="3"/>
+      <c r="GY424" s="3"/>
+      <c r="GZ424" s="3"/>
+      <c r="HA424" s="0"/>
+      <c r="HB424" s="0"/>
+      <c r="HC424" s="0"/>
+      <c r="HD424" s="0"/>
+      <c r="HE424" s="0"/>
+      <c r="HF424" s="0"/>
+      <c r="HG424" s="0"/>
+      <c r="HH424" s="0"/>
+      <c r="HI424" s="0"/>
+      <c r="HJ424" s="0"/>
+      <c r="HK424" s="0"/>
+      <c r="HL424" s="0"/>
+      <c r="HM424" s="0"/>
+      <c r="HN424" s="0"/>
+      <c r="HO424" s="0"/>
+      <c r="HP424" s="0"/>
+      <c r="HQ424" s="0"/>
+      <c r="HR424" s="0"/>
+      <c r="HS424" s="0"/>
+      <c r="HT424" s="0"/>
+      <c r="HU424" s="0"/>
+      <c r="HV424" s="0"/>
+      <c r="HW424" s="0"/>
+      <c r="HX424" s="0"/>
+      <c r="HY424" s="0"/>
+      <c r="HZ424" s="0"/>
+      <c r="IA424" s="0"/>
+    </row>
+    <row r="425" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A425" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B425" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C425" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D425" s="10" t="n">
+        <v>5393</v>
+      </c>
+      <c r="E425" s="10" t="n">
+        <v>43144</v>
+      </c>
+      <c r="F425" s="11" t="n">
+        <f aca="false">C425-I425-K425</f>
+        <v>8</v>
+      </c>
+      <c r="GP425" s="3"/>
+      <c r="GQ425" s="3"/>
+      <c r="GR425" s="3"/>
+      <c r="GS425" s="3"/>
+      <c r="GT425" s="3"/>
+      <c r="GU425" s="3"/>
+      <c r="GV425" s="3"/>
+      <c r="GW425" s="3"/>
+      <c r="GX425" s="3"/>
+      <c r="GY425" s="3"/>
+      <c r="GZ425" s="3"/>
+      <c r="HA425" s="0"/>
+      <c r="HB425" s="0"/>
+      <c r="HC425" s="0"/>
+      <c r="HD425" s="0"/>
+      <c r="HE425" s="0"/>
+      <c r="HF425" s="0"/>
+      <c r="HG425" s="0"/>
+      <c r="HH425" s="0"/>
+      <c r="HI425" s="0"/>
+      <c r="HJ425" s="0"/>
+      <c r="HK425" s="0"/>
+      <c r="HL425" s="0"/>
+      <c r="HM425" s="0"/>
+      <c r="HN425" s="0"/>
+      <c r="HO425" s="0"/>
+      <c r="HP425" s="0"/>
+      <c r="HQ425" s="0"/>
+      <c r="HR425" s="0"/>
+      <c r="HS425" s="0"/>
+      <c r="HT425" s="0"/>
+      <c r="HU425" s="0"/>
+      <c r="HV425" s="0"/>
+      <c r="HW425" s="0"/>
+      <c r="HX425" s="0"/>
+      <c r="HY425" s="0"/>
+      <c r="HZ425" s="0"/>
+      <c r="IA425" s="0"/>
+    </row>
+    <row r="426" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A426" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B426" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="C426" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D426" s="10" t="n">
+        <v>4765</v>
+      </c>
+      <c r="E426" s="10" t="n">
+        <v>38120</v>
+      </c>
+      <c r="F426" s="11" t="n">
+        <f aca="false">C426-I426-K426</f>
+        <v>8</v>
+      </c>
+      <c r="GP426" s="3"/>
+      <c r="GQ426" s="3"/>
+      <c r="GR426" s="3"/>
+      <c r="GS426" s="3"/>
+      <c r="GT426" s="3"/>
+      <c r="GU426" s="3"/>
+      <c r="GV426" s="3"/>
+      <c r="GW426" s="3"/>
+      <c r="GX426" s="3"/>
+      <c r="GY426" s="3"/>
+      <c r="GZ426" s="3"/>
+      <c r="HA426" s="0"/>
+      <c r="HB426" s="0"/>
+      <c r="HC426" s="0"/>
+      <c r="HD426" s="0"/>
+      <c r="HE426" s="0"/>
+      <c r="HF426" s="0"/>
+      <c r="HG426" s="0"/>
+      <c r="HH426" s="0"/>
+      <c r="HI426" s="0"/>
+      <c r="HJ426" s="0"/>
+      <c r="HK426" s="0"/>
+      <c r="HL426" s="0"/>
+      <c r="HM426" s="0"/>
+      <c r="HN426" s="0"/>
+      <c r="HO426" s="0"/>
+      <c r="HP426" s="0"/>
+      <c r="HQ426" s="0"/>
+      <c r="HR426" s="0"/>
+      <c r="HS426" s="0"/>
+      <c r="HT426" s="0"/>
+      <c r="HU426" s="0"/>
+      <c r="HV426" s="0"/>
+      <c r="HW426" s="0"/>
+      <c r="HX426" s="0"/>
+      <c r="HY426" s="0"/>
+      <c r="HZ426" s="0"/>
+      <c r="IA426" s="0"/>
+    </row>
+    <row r="427" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A427" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B427" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C427" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D427" s="10" t="n">
+        <v>5647</v>
+      </c>
+      <c r="E427" s="10" t="n">
+        <v>45176</v>
+      </c>
+      <c r="F427" s="11" t="n">
+        <f aca="false">C427-I427-K427</f>
+        <v>8</v>
+      </c>
+      <c r="GP427" s="3"/>
+      <c r="GQ427" s="3"/>
+      <c r="GR427" s="3"/>
+      <c r="GS427" s="3"/>
+      <c r="GT427" s="3"/>
+      <c r="GU427" s="3"/>
+      <c r="GV427" s="3"/>
+      <c r="GW427" s="3"/>
+      <c r="GX427" s="3"/>
+      <c r="GY427" s="3"/>
+      <c r="GZ427" s="3"/>
+      <c r="HA427" s="0"/>
+      <c r="HB427" s="0"/>
+      <c r="HC427" s="0"/>
+      <c r="HD427" s="0"/>
+      <c r="HE427" s="0"/>
+      <c r="HF427" s="0"/>
+      <c r="HG427" s="0"/>
+      <c r="HH427" s="0"/>
+      <c r="HI427" s="0"/>
+      <c r="HJ427" s="0"/>
+      <c r="HK427" s="0"/>
+      <c r="HL427" s="0"/>
+      <c r="HM427" s="0"/>
+      <c r="HN427" s="0"/>
+      <c r="HO427" s="0"/>
+      <c r="HP427" s="0"/>
+      <c r="HQ427" s="0"/>
+      <c r="HR427" s="0"/>
+      <c r="HS427" s="0"/>
+      <c r="HT427" s="0"/>
+      <c r="HU427" s="0"/>
+      <c r="HV427" s="0"/>
+      <c r="HW427" s="0"/>
+      <c r="HX427" s="0"/>
+      <c r="HY427" s="0"/>
+      <c r="HZ427" s="0"/>
+      <c r="IA427" s="0"/>
+    </row>
+    <row r="428" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A428" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B428" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="C428" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D428" s="10" t="n">
+        <v>5065</v>
+      </c>
+      <c r="E428" s="10" t="n">
+        <v>20260</v>
+      </c>
+      <c r="F428" s="11" t="n">
+        <f aca="false">C428-I428-K428</f>
+        <v>4</v>
+      </c>
+      <c r="GP428" s="3"/>
+      <c r="GQ428" s="3"/>
+      <c r="GR428" s="3"/>
+      <c r="GS428" s="3"/>
+      <c r="GT428" s="3"/>
+      <c r="GU428" s="3"/>
+      <c r="GV428" s="3"/>
+      <c r="GW428" s="3"/>
+      <c r="GX428" s="3"/>
+      <c r="GY428" s="3"/>
+      <c r="GZ428" s="3"/>
+      <c r="HA428" s="0"/>
+      <c r="HB428" s="0"/>
+      <c r="HC428" s="0"/>
+      <c r="HD428" s="0"/>
+      <c r="HE428" s="0"/>
+      <c r="HF428" s="0"/>
+      <c r="HG428" s="0"/>
+      <c r="HH428" s="0"/>
+      <c r="HI428" s="0"/>
+      <c r="HJ428" s="0"/>
+      <c r="HK428" s="0"/>
+      <c r="HL428" s="0"/>
+      <c r="HM428" s="0"/>
+      <c r="HN428" s="0"/>
+      <c r="HO428" s="0"/>
+      <c r="HP428" s="0"/>
+      <c r="HQ428" s="0"/>
+      <c r="HR428" s="0"/>
+      <c r="HS428" s="0"/>
+      <c r="HT428" s="0"/>
+      <c r="HU428" s="0"/>
+      <c r="HV428" s="0"/>
+      <c r="HW428" s="0"/>
+      <c r="HX428" s="0"/>
+      <c r="HY428" s="0"/>
+      <c r="HZ428" s="0"/>
+      <c r="IA428" s="0"/>
+    </row>
+    <row r="429" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A429" s="10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B429" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C429" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D429" s="10" t="n">
+        <v>5562</v>
+      </c>
+      <c r="E429" s="10" t="n">
+        <v>22248</v>
+      </c>
+      <c r="F429" s="11" t="n">
+        <f aca="false">C429-I429-K429</f>
+        <v>4</v>
+      </c>
+      <c r="GP429" s="3"/>
+      <c r="GQ429" s="3"/>
+      <c r="GR429" s="3"/>
+      <c r="GS429" s="3"/>
+      <c r="GT429" s="3"/>
+      <c r="GU429" s="3"/>
+      <c r="GV429" s="3"/>
+      <c r="GW429" s="3"/>
+      <c r="GX429" s="3"/>
+      <c r="GY429" s="3"/>
+      <c r="GZ429" s="3"/>
+      <c r="HA429" s="0"/>
+      <c r="HB429" s="0"/>
+      <c r="HC429" s="0"/>
+      <c r="HD429" s="0"/>
+      <c r="HE429" s="0"/>
+      <c r="HF429" s="0"/>
+      <c r="HG429" s="0"/>
+      <c r="HH429" s="0"/>
+      <c r="HI429" s="0"/>
+      <c r="HJ429" s="0"/>
+      <c r="HK429" s="0"/>
+      <c r="HL429" s="0"/>
+      <c r="HM429" s="0"/>
+      <c r="HN429" s="0"/>
+      <c r="HO429" s="0"/>
+      <c r="HP429" s="0"/>
+      <c r="HQ429" s="0"/>
+      <c r="HR429" s="0"/>
+      <c r="HS429" s="0"/>
+      <c r="HT429" s="0"/>
+      <c r="HU429" s="0"/>
+      <c r="HV429" s="0"/>
+      <c r="HW429" s="0"/>
+      <c r="HX429" s="0"/>
+      <c r="HY429" s="0"/>
+      <c r="HZ429" s="0"/>
+      <c r="IA429" s="0"/>
+    </row>
+    <row r="430" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A430" s="10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B430" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="C430" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D430" s="10" t="n">
+        <v>5759</v>
+      </c>
+      <c r="E430" s="10" t="n">
+        <v>46072</v>
+      </c>
+      <c r="F430" s="11" t="n">
+        <f aca="false">C430-I430-K430</f>
+        <v>8</v>
+      </c>
+      <c r="GP430" s="3"/>
+      <c r="GQ430" s="3"/>
+      <c r="GR430" s="3"/>
+      <c r="GS430" s="3"/>
+      <c r="GT430" s="3"/>
+      <c r="GU430" s="3"/>
+      <c r="GV430" s="3"/>
+      <c r="GW430" s="3"/>
+      <c r="GX430" s="3"/>
+      <c r="GY430" s="3"/>
+      <c r="GZ430" s="3"/>
+      <c r="HA430" s="0"/>
+      <c r="HB430" s="0"/>
+      <c r="HC430" s="0"/>
+      <c r="HD430" s="0"/>
+      <c r="HE430" s="0"/>
+      <c r="HF430" s="0"/>
+      <c r="HG430" s="0"/>
+      <c r="HH430" s="0"/>
+      <c r="HI430" s="0"/>
+      <c r="HJ430" s="0"/>
+      <c r="HK430" s="0"/>
+      <c r="HL430" s="0"/>
+      <c r="HM430" s="0"/>
+      <c r="HN430" s="0"/>
+      <c r="HO430" s="0"/>
+      <c r="HP430" s="0"/>
+      <c r="HQ430" s="0"/>
+      <c r="HR430" s="0"/>
+      <c r="HS430" s="0"/>
+      <c r="HT430" s="0"/>
+      <c r="HU430" s="0"/>
+      <c r="HV430" s="0"/>
+      <c r="HW430" s="0"/>
+      <c r="HX430" s="0"/>
+      <c r="HY430" s="0"/>
+      <c r="HZ430" s="0"/>
+      <c r="IA430" s="0"/>
+    </row>
+    <row r="431" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A431" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="B431" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="C431" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D431" s="10" t="n">
+        <v>6594</v>
+      </c>
+      <c r="E431" s="10" t="n">
+        <v>52752</v>
+      </c>
+      <c r="F431" s="11" t="n">
+        <f aca="false">C431-I431-K431</f>
+        <v>8</v>
+      </c>
+      <c r="GP431" s="3"/>
+      <c r="GQ431" s="3"/>
+      <c r="GR431" s="3"/>
+      <c r="GS431" s="3"/>
+      <c r="GT431" s="3"/>
+      <c r="GU431" s="3"/>
+      <c r="GV431" s="3"/>
+      <c r="GW431" s="3"/>
+      <c r="GX431" s="3"/>
+      <c r="GY431" s="3"/>
+      <c r="GZ431" s="3"/>
+      <c r="HA431" s="0"/>
+      <c r="HB431" s="0"/>
+      <c r="HC431" s="0"/>
+      <c r="HD431" s="0"/>
+      <c r="HE431" s="0"/>
+      <c r="HF431" s="0"/>
+      <c r="HG431" s="0"/>
+      <c r="HH431" s="0"/>
+      <c r="HI431" s="0"/>
+      <c r="HJ431" s="0"/>
+      <c r="HK431" s="0"/>
+      <c r="HL431" s="0"/>
+      <c r="HM431" s="0"/>
+      <c r="HN431" s="0"/>
+      <c r="HO431" s="0"/>
+      <c r="HP431" s="0"/>
+      <c r="HQ431" s="0"/>
+      <c r="HR431" s="0"/>
+      <c r="HS431" s="0"/>
+      <c r="HT431" s="0"/>
+      <c r="HU431" s="0"/>
+      <c r="HV431" s="0"/>
+      <c r="HW431" s="0"/>
+      <c r="HX431" s="0"/>
+      <c r="HY431" s="0"/>
+      <c r="HZ431" s="0"/>
+      <c r="IA431" s="0"/>
+    </row>
+    <row r="432" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A432" s="10" t="n">
+        <v>13</v>
+      </c>
+      <c r="B432" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="C432" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D432" s="10" t="n">
+        <v>9826</v>
+      </c>
+      <c r="E432" s="10" t="n">
+        <v>39304</v>
+      </c>
+      <c r="F432" s="11" t="n">
+        <f aca="false">C432-I432-K432</f>
+        <v>4</v>
+      </c>
+      <c r="GP432" s="3"/>
+      <c r="GQ432" s="3"/>
+      <c r="GR432" s="3"/>
+      <c r="GS432" s="3"/>
+      <c r="GT432" s="3"/>
+      <c r="GU432" s="3"/>
+      <c r="GV432" s="3"/>
+      <c r="GW432" s="3"/>
+      <c r="GX432" s="3"/>
+      <c r="GY432" s="3"/>
+      <c r="GZ432" s="3"/>
+      <c r="HA432" s="0"/>
+      <c r="HB432" s="0"/>
+      <c r="HC432" s="0"/>
+      <c r="HD432" s="0"/>
+      <c r="HE432" s="0"/>
+      <c r="HF432" s="0"/>
+      <c r="HG432" s="0"/>
+      <c r="HH432" s="0"/>
+      <c r="HI432" s="0"/>
+      <c r="HJ432" s="0"/>
+      <c r="HK432" s="0"/>
+      <c r="HL432" s="0"/>
+      <c r="HM432" s="0"/>
+      <c r="HN432" s="0"/>
+      <c r="HO432" s="0"/>
+      <c r="HP432" s="0"/>
+      <c r="HQ432" s="0"/>
+      <c r="HR432" s="0"/>
+      <c r="HS432" s="0"/>
+      <c r="HT432" s="0"/>
+      <c r="HU432" s="0"/>
+      <c r="HV432" s="0"/>
+      <c r="HW432" s="0"/>
+      <c r="HX432" s="0"/>
+      <c r="HY432" s="0"/>
+      <c r="HZ432" s="0"/>
+      <c r="IA432" s="0"/>
+    </row>
+    <row r="433" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A433" s="10" t="n">
+        <v>14</v>
+      </c>
+      <c r="B433" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="C433" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D433" s="10" t="n">
+        <v>11257</v>
+      </c>
+      <c r="E433" s="10" t="n">
+        <v>45028</v>
+      </c>
+      <c r="F433" s="11" t="n">
+        <f aca="false">C433-I433-K433</f>
+        <v>4</v>
+      </c>
+      <c r="GP433" s="3"/>
+      <c r="GQ433" s="3"/>
+      <c r="GR433" s="3"/>
+      <c r="GS433" s="3"/>
+      <c r="GT433" s="3"/>
+      <c r="GU433" s="3"/>
+      <c r="GV433" s="3"/>
+      <c r="GW433" s="3"/>
+      <c r="GX433" s="3"/>
+      <c r="GY433" s="3"/>
+      <c r="GZ433" s="3"/>
+      <c r="HA433" s="0"/>
+      <c r="HB433" s="0"/>
+      <c r="HC433" s="0"/>
+      <c r="HD433" s="0"/>
+      <c r="HE433" s="0"/>
+      <c r="HF433" s="0"/>
+      <c r="HG433" s="0"/>
+      <c r="HH433" s="0"/>
+      <c r="HI433" s="0"/>
+      <c r="HJ433" s="0"/>
+      <c r="HK433" s="0"/>
+      <c r="HL433" s="0"/>
+      <c r="HM433" s="0"/>
+      <c r="HN433" s="0"/>
+      <c r="HO433" s="0"/>
+      <c r="HP433" s="0"/>
+      <c r="HQ433" s="0"/>
+      <c r="HR433" s="0"/>
+      <c r="HS433" s="0"/>
+      <c r="HT433" s="0"/>
+      <c r="HU433" s="0"/>
+      <c r="HV433" s="0"/>
+      <c r="HW433" s="0"/>
+      <c r="HX433" s="0"/>
+      <c r="HY433" s="0"/>
+      <c r="HZ433" s="0"/>
+      <c r="IA433" s="0"/>
+    </row>
+    <row r="434" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A434" s="10" t="n">
+        <v>15</v>
+      </c>
+      <c r="B434" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="C434" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D434" s="10" t="n">
+        <v>10458</v>
+      </c>
+      <c r="E434" s="10" t="n">
+        <v>41832</v>
+      </c>
+      <c r="F434" s="11" t="n">
+        <f aca="false">C434-I434-K434</f>
+        <v>4</v>
+      </c>
+      <c r="GP434" s="3"/>
+      <c r="GQ434" s="3"/>
+      <c r="GR434" s="3"/>
+      <c r="GS434" s="3"/>
+      <c r="GT434" s="3"/>
+      <c r="GU434" s="3"/>
+      <c r="GV434" s="3"/>
+      <c r="GW434" s="3"/>
+      <c r="GX434" s="3"/>
+      <c r="GY434" s="3"/>
+      <c r="GZ434" s="3"/>
+      <c r="HA434" s="0"/>
+      <c r="HB434" s="0"/>
+      <c r="HC434" s="0"/>
+      <c r="HD434" s="0"/>
+      <c r="HE434" s="0"/>
+      <c r="HF434" s="0"/>
+      <c r="HG434" s="0"/>
+      <c r="HH434" s="0"/>
+      <c r="HI434" s="0"/>
+      <c r="HJ434" s="0"/>
+      <c r="HK434" s="0"/>
+      <c r="HL434" s="0"/>
+      <c r="HM434" s="0"/>
+      <c r="HN434" s="0"/>
+      <c r="HO434" s="0"/>
+      <c r="HP434" s="0"/>
+      <c r="HQ434" s="0"/>
+      <c r="HR434" s="0"/>
+      <c r="HS434" s="0"/>
+      <c r="HT434" s="0"/>
+      <c r="HU434" s="0"/>
+      <c r="HV434" s="0"/>
+      <c r="HW434" s="0"/>
+      <c r="HX434" s="0"/>
+      <c r="HY434" s="0"/>
+      <c r="HZ434" s="0"/>
+      <c r="IA434" s="0"/>
+    </row>
+    <row r="435" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A435" s="10" t="n">
+        <v>16</v>
+      </c>
+      <c r="B435" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C435" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D435" s="10" t="n">
+        <v>10618</v>
+      </c>
+      <c r="E435" s="10" t="n">
+        <v>42472</v>
+      </c>
+      <c r="F435" s="11" t="n">
+        <f aca="false">C435-I435-K435</f>
+        <v>4</v>
+      </c>
+      <c r="GP435" s="3"/>
+      <c r="GQ435" s="3"/>
+      <c r="GR435" s="3"/>
+      <c r="GS435" s="3"/>
+      <c r="GT435" s="3"/>
+      <c r="GU435" s="3"/>
+      <c r="GV435" s="3"/>
+      <c r="GW435" s="3"/>
+      <c r="GX435" s="3"/>
+      <c r="GY435" s="3"/>
+      <c r="GZ435" s="3"/>
+      <c r="HA435" s="0"/>
+      <c r="HB435" s="0"/>
+      <c r="HC435" s="0"/>
+      <c r="HD435" s="0"/>
+      <c r="HE435" s="0"/>
+      <c r="HF435" s="0"/>
+      <c r="HG435" s="0"/>
+      <c r="HH435" s="0"/>
+      <c r="HI435" s="0"/>
+      <c r="HJ435" s="0"/>
+      <c r="HK435" s="0"/>
+      <c r="HL435" s="0"/>
+      <c r="HM435" s="0"/>
+      <c r="HN435" s="0"/>
+      <c r="HO435" s="0"/>
+      <c r="HP435" s="0"/>
+      <c r="HQ435" s="0"/>
+      <c r="HR435" s="0"/>
+      <c r="HS435" s="0"/>
+      <c r="HT435" s="0"/>
+      <c r="HU435" s="0"/>
+      <c r="HV435" s="0"/>
+      <c r="HW435" s="0"/>
+      <c r="HX435" s="0"/>
+      <c r="HY435" s="0"/>
+      <c r="HZ435" s="0"/>
+      <c r="IA435" s="0"/>
+    </row>
+    <row r="436" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A436" s="10" t="n">
+        <v>17</v>
+      </c>
+      <c r="B436" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C436" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D436" s="10" t="n">
+        <v>13833</v>
+      </c>
+      <c r="E436" s="10" t="n">
+        <v>55332</v>
+      </c>
+      <c r="F436" s="11" t="n">
+        <f aca="false">C436-I436-K436</f>
+        <v>4</v>
+      </c>
+      <c r="GP436" s="3"/>
+      <c r="GQ436" s="3"/>
+      <c r="GR436" s="3"/>
+      <c r="GS436" s="3"/>
+      <c r="GT436" s="3"/>
+      <c r="GU436" s="3"/>
+      <c r="GV436" s="3"/>
+      <c r="GW436" s="3"/>
+      <c r="GX436" s="3"/>
+      <c r="GY436" s="3"/>
+      <c r="GZ436" s="3"/>
+      <c r="HA436" s="0"/>
+      <c r="HB436" s="0"/>
+      <c r="HC436" s="0"/>
+      <c r="HD436" s="0"/>
+      <c r="HE436" s="0"/>
+      <c r="HF436" s="0"/>
+      <c r="HG436" s="0"/>
+      <c r="HH436" s="0"/>
+      <c r="HI436" s="0"/>
+      <c r="HJ436" s="0"/>
+      <c r="HK436" s="0"/>
+      <c r="HL436" s="0"/>
+      <c r="HM436" s="0"/>
+      <c r="HN436" s="0"/>
+      <c r="HO436" s="0"/>
+      <c r="HP436" s="0"/>
+      <c r="HQ436" s="0"/>
+      <c r="HR436" s="0"/>
+      <c r="HS436" s="0"/>
+      <c r="HT436" s="0"/>
+      <c r="HU436" s="0"/>
+      <c r="HV436" s="0"/>
+      <c r="HW436" s="0"/>
+      <c r="HX436" s="0"/>
+      <c r="HY436" s="0"/>
+      <c r="HZ436" s="0"/>
+      <c r="IA436" s="0"/>
+    </row>
+    <row r="437" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E437" s="2" t="n">
+        <f aca="false">SUM(E420:E436)</f>
+        <v>639084</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B439" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A440" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="B440" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C440" s="10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D440" s="10" t="n">
+        <v>9989</v>
+      </c>
+      <c r="E440" s="10" t="n">
+        <v>39956</v>
+      </c>
+      <c r="F440" s="11" t="n">
+        <f aca="false">C440-I440-K440</f>
+        <v>4</v>
+      </c>
+      <c r="GP440" s="3"/>
+      <c r="GQ440" s="3"/>
+      <c r="GR440" s="3"/>
+      <c r="GS440" s="3"/>
+      <c r="GT440" s="3"/>
+      <c r="GU440" s="3"/>
+      <c r="GV440" s="3"/>
+      <c r="GW440" s="3"/>
+      <c r="GX440" s="3"/>
+      <c r="GY440" s="3"/>
+      <c r="GZ440" s="3"/>
+      <c r="HA440" s="0"/>
+      <c r="HB440" s="0"/>
+      <c r="HC440" s="0"/>
+      <c r="HD440" s="0"/>
+      <c r="HE440" s="0"/>
+      <c r="HF440" s="0"/>
+      <c r="HG440" s="0"/>
+      <c r="HH440" s="0"/>
+      <c r="HI440" s="0"/>
+      <c r="HJ440" s="0"/>
+      <c r="HK440" s="0"/>
+      <c r="HL440" s="0"/>
+      <c r="HM440" s="0"/>
+      <c r="HN440" s="0"/>
+      <c r="HO440" s="0"/>
+      <c r="HP440" s="0"/>
+      <c r="HQ440" s="0"/>
+      <c r="HR440" s="0"/>
+      <c r="HS440" s="0"/>
+      <c r="HT440" s="0"/>
+      <c r="HU440" s="0"/>
+      <c r="HV440" s="0"/>
+      <c r="HW440" s="0"/>
+      <c r="HX440" s="0"/>
+      <c r="HY440" s="0"/>
+      <c r="HZ440" s="0"/>
+      <c r="IA440" s="0"/>
+    </row>
+    <row r="441" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E441" s="2" t="n">
+        <f aca="false">SUM(E440:E440)</f>
+        <v>39956</v>
+      </c>
+    </row>
+    <row r="64071" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64072" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64073" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64074" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -19847,8 +21170,8 @@
     <row r="65519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="65531" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65530" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
